--- a/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
+++ b/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedComCareCommun" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
+++ b/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedComCareCommun" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
+++ b/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0-draft</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
+++ b/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01</t>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
+++ b/ig/terminology/ValueSet-medcom-careCommunication-categories.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22</t>
+    <t>2025-10-28</t>
   </si>
   <si>
     <t>Publisher</t>
